--- a/Testcases_supplier/Orders/Manual testcases/Order final testcases.xlsx
+++ b/Testcases_supplier/Orders/Manual testcases/Order final testcases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Orders\Manual testcases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB5A95F-680F-41E8-B116-0530EE41A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,496 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+  <si>
+    <t>SL. No</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected output</t>
+  </si>
+  <si>
+    <t>Actual output</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Orders screen</t>
+  </si>
+  <si>
+    <t>View Orders screen</t>
+  </si>
+  <si>
+    <t>Click on the Orders menu on the side navigation menubar</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Orders menu highlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Oredrs menu in the side navigation menubar </t>
+  </si>
+  <si>
+    <t>The Orders menu becomes higlighted with the blue icon.</t>
+  </si>
+  <si>
+    <t>Displayed Blue in colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the top </t>
+  </si>
+  <si>
+    <t>It gets displayed</t>
+  </si>
+  <si>
+    <t>Application redirects to Orders screen.</t>
+  </si>
+  <si>
+    <t>Application redirects to Orders screen</t>
+  </si>
+  <si>
+    <t>It should have This week, Last week and This month date details</t>
+  </si>
+  <si>
+    <t>It gets displayed the This week, Last week and This month date details</t>
+  </si>
+  <si>
+    <t>In the order page it shows Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Order number'</t>
+    </r>
+  </si>
+  <si>
+    <t>If you click on the Order number in the filter text box then it shows the result of particular order number</t>
+  </si>
+  <si>
+    <t>It gets displyed the Order number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Delivery location'</t>
+    </r>
+  </si>
+  <si>
+    <t>If you click on the Delivery location dropdown list</t>
+  </si>
+  <si>
+    <t>Get displayed the list of Outlet location</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Order date range'</t>
+    </r>
+  </si>
+  <si>
+    <t>If we click on the Order date range then it shows the date picker of calender dates that too it shows current day</t>
+  </si>
+  <si>
+    <t>It should displayed the selected dates</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Delivery date range'</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click on the Delivery date range then it shows the date picker of calender dates that too it shows current day</t>
+  </si>
+  <si>
+    <t>Displayed the current date of calender</t>
+  </si>
+  <si>
+    <t>Choosen the Delivery date range on the pop up</t>
+  </si>
+  <si>
+    <t>It should displayed the From and To dates</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Search'</t>
+    </r>
+  </si>
+  <si>
+    <t>When Type order number and click Search button</t>
+  </si>
+  <si>
+    <t>It displayed the Searching order details</t>
+  </si>
+  <si>
+    <t>Buyer orders page</t>
+  </si>
+  <si>
+    <t>View orders menu page</t>
+  </si>
+  <si>
+    <r>
+      <t>Click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filter"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,It should display the dropdown value of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Order status, Delivery status, Invoicing status and Acknowledgement status"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As per expected, Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Filter",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>It get displayed the dropdown value of Order status, Delivery status, Invoicing status Acknowledgement status, Reset and Apply</t>
+    </r>
+  </si>
+  <si>
+    <t>Buyers Home page</t>
+  </si>
+  <si>
+    <t>View all orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of Orders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed </t>
+  </si>
+  <si>
+    <t>All orders</t>
+  </si>
+  <si>
+    <t>Click Check box</t>
+  </si>
+  <si>
+    <r>
+      <t>Once click the particular check box it should shows how many orders</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selected, Clear, Download CSV, Download CSV(detailed), Mark as received and up to 3,000 orders only </t>
+    </r>
+  </si>
+  <si>
+    <t>As expected it gets displayed the options on the top</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check box -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Clear ,it will return back to Orders screen </t>
+  </si>
+  <si>
+    <t>It gets displayed order page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check box -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Download CSV</t>
+    </r>
+  </si>
+  <si>
+    <t>Click the Download CSV ,it downloaded successfully</t>
+  </si>
+  <si>
+    <t>It gets displayed Successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Download CSV(detailed)</t>
+    </r>
+  </si>
+  <si>
+    <t>Click the Download CSV(detailed),it downloaded successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received</t>
+    </r>
+  </si>
+  <si>
+    <t>Click the Mark as received,It will Acknowledge, Shipped and Partially Shipped</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received-&gt;Acknowledge</t>
+    </r>
+  </si>
+  <si>
+    <t>When we click the Acknowledge ,it will display the pop up Acknowledge  this order?</t>
+  </si>
+  <si>
+    <t>If we click 'OK' then it displayed the 'Order Acknowledged successfully' and In the Order number appears tick icon</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received-&gt;Shipped</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click the Shipped it will appears status as '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHIPPED'</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed Order number as shipped as successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received-&gt;Partially Shipped</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Shipped it will appears status as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Partially SHIPPED'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Placed order ,it shows details of order,right side Acknowledge, Create e-Invoice and Options                                                                                      </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,18 +521,128 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -49,8 +652,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +966,499 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testcases_supplier/Orders/Manual testcases/Order final testcases.xlsx
+++ b/Testcases_supplier/Orders/Manual testcases/Order final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB5A95F-680F-41E8-B116-0530EE41A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEDE48A-450E-4F0F-8FA9-4A431435E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>SL. No</t>
   </si>
@@ -93,7 +93,398 @@
     <t>It gets displayed the This week, Last week and This month date details</t>
   </si>
   <si>
-    <t>In the order page it shows Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download</t>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Order number'</t>
+    </r>
+  </si>
+  <si>
+    <t>If you click on the Order number in the filter text box then it shows the result of particular order number</t>
+  </si>
+  <si>
+    <t>It gets displyed the Order number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Delivery location'</t>
+    </r>
+  </si>
+  <si>
+    <t>If you click on the Delivery location dropdown list</t>
+  </si>
+  <si>
+    <t>Get displayed the list of Outlet location</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Order date range'</t>
+    </r>
+  </si>
+  <si>
+    <t>If we click on the Order date range then it shows the date picker of calender dates that too it shows current day</t>
+  </si>
+  <si>
+    <t>It should displayed the selected dates</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Delivery date range'</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click on the Delivery date range then it shows the date picker of calender dates that too it shows current day</t>
+  </si>
+  <si>
+    <t>Displayed the current date of calender</t>
+  </si>
+  <si>
+    <t>Choosen the Delivery date range on the pop up</t>
+  </si>
+  <si>
+    <t>It should displayed the From and To dates</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Search'</t>
+    </r>
+  </si>
+  <si>
+    <t>When Type order number and click Search button</t>
+  </si>
+  <si>
+    <t>It displayed the Searching order details</t>
+  </si>
+  <si>
+    <t>View orders menu page</t>
+  </si>
+  <si>
+    <r>
+      <t>Click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filter"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,It should display the dropdown value of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Order status, Delivery status, Invoicing status and Acknowledgement status"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As per expected, Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Filter",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>It get displayed the dropdown value of Order status, Delivery status, Invoicing status Acknowledgement status, Reset and Apply</t>
+    </r>
+  </si>
+  <si>
+    <t>View all orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of Orders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed </t>
+  </si>
+  <si>
+    <t>All orders</t>
+  </si>
+  <si>
+    <t>Click Check box</t>
+  </si>
+  <si>
+    <r>
+      <t>Once click the particular check box it should shows how many orders</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selected, Clear, Download CSV, Download CSV(detailed), Mark as received and up to 3,000 orders only </t>
+    </r>
+  </si>
+  <si>
+    <t>As expected it gets displayed the options on the top</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check box -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Clear ,it will return back to Orders screen </t>
+  </si>
+  <si>
+    <t>It gets displayed order page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check box -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Download CSV</t>
+    </r>
+  </si>
+  <si>
+    <t>Click the Download CSV ,it downloaded successfully</t>
+  </si>
+  <si>
+    <t>It gets displayed Successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Download CSV(detailed)</t>
+    </r>
+  </si>
+  <si>
+    <t>Click the Download CSV(detailed),it downloaded successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received</t>
+    </r>
+  </si>
+  <si>
+    <t>Click the Mark as received,It will Acknowledge, Shipped and Partially Shipped</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received-&gt;Acknowledge</t>
+    </r>
+  </si>
+  <si>
+    <t>When we click the Acknowledge ,it will display the pop up Acknowledge  this order?</t>
+  </si>
+  <si>
+    <t>If we click 'OK' then it displayed the 'Order Acknowledged successfully' and In the Order number appears tick icon</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received-&gt;Shipped</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click the Shipped it will appears status as '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHIPPED'</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed Order number as shipped as successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received-&gt;Partially Shipped</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Shipped it will appears status as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Partially SHIPPED'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Placed order ,it shows details of order,right side Acknowledge, Create e-Invoice and Options                                                                                      </t>
+  </si>
+  <si>
+    <t>In the order page it shows Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download(New imple)</t>
   </si>
   <si>
     <r>
@@ -108,8 +499,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download"</t>
-    </r>
+      <t>"Create order, Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download"</t>
+    </r>
+  </si>
+  <si>
+    <t>Supplier orders page</t>
+  </si>
+  <si>
+    <t>Once click the Create order,it shows list of outlets and User can see pin outlets to the top by starring them</t>
+  </si>
+  <si>
+    <t>It gets displayed the Create order and List of orders</t>
   </si>
   <si>
     <r>
@@ -124,389 +524,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Order number'</t>
-    </r>
-  </si>
-  <si>
-    <t>If you click on the Order number in the filter text box then it shows the result of particular order number</t>
-  </si>
-  <si>
-    <t>It gets displyed the Order number</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>'Create Order'</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Delivery location'</t>
-    </r>
-  </si>
-  <si>
-    <t>If you click on the Delivery location dropdown list</t>
-  </si>
-  <si>
-    <t>Get displayed the list of Outlet location</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Order date range'</t>
-    </r>
-  </si>
-  <si>
-    <t>If we click on the Order date range then it shows the date picker of calender dates that too it shows current day</t>
-  </si>
-  <si>
-    <t>It should displayed the selected dates</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Delivery date range'</t>
-    </r>
-  </si>
-  <si>
-    <t>Once click on the Delivery date range then it shows the date picker of calender dates that too it shows current day</t>
-  </si>
-  <si>
-    <t>Displayed the current date of calender</t>
-  </si>
-  <si>
-    <t>Choosen the Delivery date range on the pop up</t>
-  </si>
-  <si>
-    <t>It should displayed the From and To dates</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Search'</t>
-    </r>
-  </si>
-  <si>
-    <t>When Type order number and click Search button</t>
-  </si>
-  <si>
-    <t>It displayed the Searching order details</t>
-  </si>
-  <si>
-    <t>Buyer orders page</t>
-  </si>
-  <si>
-    <t>View orders menu page</t>
-  </si>
-  <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Filter"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Filter"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,It should display the dropdown value of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Order status, Delivery status, Invoicing status and Acknowledgement status"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As per expected, Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Filter",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>It get displayed the dropdown value of Order status, Delivery status, Invoicing status Acknowledgement status, Reset and Apply</t>
-    </r>
-  </si>
-  <si>
-    <t>Buyers Home page</t>
-  </si>
-  <si>
-    <t>View all orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of Orders </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It gets displayed </t>
-  </si>
-  <si>
-    <t>All orders</t>
-  </si>
-  <si>
-    <t>Click Check box</t>
-  </si>
-  <si>
-    <r>
-      <t>Once click the particular check box it should shows how many orders</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> selected, Clear, Download CSV, Download CSV(detailed), Mark as received and up to 3,000 orders only </t>
-    </r>
-  </si>
-  <si>
-    <t>As expected it gets displayed the options on the top</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check box -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Clear</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the Clear ,it will return back to Orders screen </t>
-  </si>
-  <si>
-    <t>It gets displayed order page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check box -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Download CSV</t>
-    </r>
-  </si>
-  <si>
-    <t>Click the Download CSV ,it downloaded successfully</t>
-  </si>
-  <si>
-    <t>It gets displayed Successfully</t>
-  </si>
-  <si>
-    <r>
-      <t>Check box -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Download CSV(detailed)</t>
-    </r>
-  </si>
-  <si>
-    <t>Click the Download CSV(detailed),it downloaded successfully</t>
-  </si>
-  <si>
-    <r>
-      <t>Check box -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mark as received</t>
-    </r>
-  </si>
-  <si>
-    <t>Click the Mark as received,It will Acknowledge, Shipped and Partially Shipped</t>
-  </si>
-  <si>
-    <r>
-      <t>Check box -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mark as received-&gt;Acknowledge</t>
-    </r>
-  </si>
-  <si>
-    <t>When we click the Acknowledge ,it will display the pop up Acknowledge  this order?</t>
-  </si>
-  <si>
-    <t>If we click 'OK' then it displayed the 'Order Acknowledged successfully' and In the Order number appears tick icon</t>
-  </si>
-  <si>
-    <r>
-      <t>Check box -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mark as received-&gt;Shipped</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click the Shipped it will appears status as '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SHIPPED'</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed Order number as shipped as successfully</t>
-  </si>
-  <si>
-    <r>
-      <t>Check box -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mark as received-&gt;Partially Shipped</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the Shipped it will appears status as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Partially SHIPPED'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the Placed order ,it shows details of order,right side Acknowledge, Create e-Invoice and Options                                                                                      </t>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>select outlet and Add to order and click the Items</t>
+  </si>
+  <si>
+    <t>Once click the items and Place order</t>
   </si>
 </sst>
 </file>
@@ -652,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -687,6 +722,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,10 +1131,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>17</v>
@@ -1113,13 +1154,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -1136,13 +1177,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -1159,13 +1200,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
@@ -1182,13 +1223,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>11</v>
@@ -1205,13 +1246,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
@@ -1228,13 +1269,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,19 +1283,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>11</v>
@@ -1264,20 +1305,20 @@
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>46</v>
+      <c r="B13" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>11</v>
@@ -1288,19 +1329,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>11</v>
@@ -1311,19 +1352,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>11</v>
@@ -1334,19 +1375,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>11</v>
@@ -1357,19 +1398,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>11</v>
@@ -1380,16 +1421,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>17</v>
@@ -1403,19 +1444,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1423,19 +1464,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1443,19 +1484,59 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>69</v>
+      <c r="C22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Testcases_supplier/Orders/Manual testcases/Order final testcases.xlsx
+++ b/Testcases_supplier/Orders/Manual testcases/Order final testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEDE48A-450E-4F0F-8FA9-4A431435E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F511E-EB94-46A2-BBA3-56D9A4C10DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>SL. No</t>
   </si>
@@ -301,6 +301,192 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Check box -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Clear ,it will return back to Orders screen </t>
+  </si>
+  <si>
+    <t>It gets displayed order page</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received</t>
+    </r>
+  </si>
+  <si>
+    <t>Click the Mark as received,It will Acknowledge, Shipped and Partially Shipped</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received-&gt;Acknowledge</t>
+    </r>
+  </si>
+  <si>
+    <t>When we click the Acknowledge ,it will display the pop up Acknowledge  this order?</t>
+  </si>
+  <si>
+    <t>If we click 'OK' then it displayed the 'Order Acknowledged successfully' and In the Order number appears tick icon</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received-&gt;Shipped</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click the Shipped it will appears status as '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHIPPED'</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed Order number as shipped as successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Check box -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mark as received-&gt;Partially Shipped</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Shipped it will appears status as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Partially SHIPPED'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Placed order ,it shows details of order,right side Acknowledge, Create e-Invoice and Options                                                                                      </t>
+  </si>
+  <si>
+    <t>In the order page it shows Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download(New imple)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Create order, Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download"</t>
+    </r>
+  </si>
+  <si>
+    <t>Supplier orders page</t>
+  </si>
+  <si>
+    <t>Once click the Create order,it shows list of outlets and User can see pin outlets to the top by starring them</t>
+  </si>
+  <si>
+    <t>It gets displayed the Create order and List of orders</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Create Order'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>select outlet and Add to order and click the Items</t>
+  </si>
+  <si>
+    <t>Once click the items and Place order</t>
+  </si>
+  <si>
+    <r>
       <t>Once click the particular check box it should shows how many orders</t>
     </r>
     <r>
@@ -312,11 +498,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> selected, Clear, Download CSV, Download CSV(detailed), Mark as received and up to 3,000 orders only </t>
-    </r>
-  </si>
-  <si>
-    <t>As expected it gets displayed the options on the top</t>
+      <t xml:space="preserve"> selected, Clear, Export data, Export data (detailed), Mark as received and up to 3,000 orders only </t>
+    </r>
   </si>
   <si>
     <r>
@@ -330,35 +513,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Clear</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the Clear ,it will return back to Orders screen </t>
-  </si>
-  <si>
-    <t>It gets displayed order page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check box -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Download CSV</t>
-    </r>
-  </si>
-  <si>
-    <t>Click the Download CSV ,it downloaded successfully</t>
-  </si>
-  <si>
-    <t>It gets displayed Successfully</t>
+      <t xml:space="preserve"> Export data</t>
+    </r>
   </si>
   <si>
     <r>
@@ -372,176 +528,14 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Download CSV(detailed)</t>
-    </r>
-  </si>
-  <si>
-    <t>Click the Download CSV(detailed),it downloaded successfully</t>
-  </si>
-  <si>
-    <r>
-      <t>Check box -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mark as received</t>
-    </r>
-  </si>
-  <si>
-    <t>Click the Mark as received,It will Acknowledge, Shipped and Partially Shipped</t>
-  </si>
-  <si>
-    <r>
-      <t>Check box -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mark as received-&gt;Acknowledge</t>
-    </r>
-  </si>
-  <si>
-    <t>When we click the Acknowledge ,it will display the pop up Acknowledge  this order?</t>
-  </si>
-  <si>
-    <t>If we click 'OK' then it displayed the 'Order Acknowledged successfully' and In the Order number appears tick icon</t>
-  </si>
-  <si>
-    <r>
-      <t>Check box -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mark as received-&gt;Shipped</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click the Shipped it will appears status as '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SHIPPED'</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed Order number as shipped as successfully</t>
-  </si>
-  <si>
-    <r>
-      <t>Check box -&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mark as received-&gt;Partially Shipped</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the Shipped it will appears status as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Partially SHIPPED'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the Placed order ,it shows details of order,right side Acknowledge, Create e-Invoice and Options                                                                                      </t>
-  </si>
-  <si>
-    <t>In the order page it shows Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download(New imple)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Create order, Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download"</t>
-    </r>
-  </si>
-  <si>
-    <t>Supplier orders page</t>
-  </si>
-  <si>
-    <t>Once click the Create order,it shows list of outlets and User can see pin outlets to the top by starring them</t>
-  </si>
-  <si>
-    <t>It gets displayed the Create order and List of orders</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Create Order'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <t>select outlet and Add to order and click the Items</t>
-  </si>
-  <si>
-    <t>Once click the items and Place order</t>
+      <t xml:space="preserve">  Export data(detailed)</t>
+    </r>
+  </si>
+  <si>
+    <t>Click the  Export data ,it downloaded successfully</t>
+  </si>
+  <si>
+    <t>Click the  Export data(detailed),it downloaded successfully</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,10 +1125,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>17</v>
@@ -1283,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>39</v>
@@ -1306,7 +1300,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>43</v>
@@ -1315,7 +1309,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>45</v>
@@ -1329,7 +1323,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>46</v>
@@ -1338,33 +1332,29 @@
         <v>47</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>11</v>
@@ -1375,62 +1365,54 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>11</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>11</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>17</v>
@@ -1444,19 +1426,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1464,19 +1446,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,19 +1466,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1504,19 +1486,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1524,19 +1506,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Testcases_supplier/Orders/Manual testcases/Order final testcases.xlsx
+++ b/Testcases_supplier/Orders/Manual testcases/Order final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F511E-EB94-46A2-BBA3-56D9A4C10DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF370682-107C-44DE-B9EA-E9B48BA3EE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>SL. No</t>
   </si>
@@ -390,9 +390,6 @@
     </r>
   </si>
   <si>
-    <t>It displayed Order number as shipped as successfully</t>
-  </si>
-  <si>
     <r>
       <t>Check box -&gt;</t>
     </r>
@@ -536,6 +533,28 @@
   </si>
   <si>
     <t>Click the  Export data(detailed),it downloaded successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed as we expected </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed Order number as shipped as successfully and status will be updated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHIPPED</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed Order number as shipped as successfully status will be updated PARTIALLY SHIPPED</t>
   </si>
 </sst>
 </file>
@@ -681,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -722,6 +741,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,10 +1145,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>17</v>
@@ -1277,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>39</v>
@@ -1300,7 +1320,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>43</v>
@@ -1309,7 +1329,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>45</v>
@@ -1323,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>46</v>
@@ -1332,17 +1352,21 @@
         <v>47</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>46</v>
@@ -1365,45 +1389,53 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>46</v>
@@ -1426,7 +1458,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>46</v>
@@ -1440,13 +1472,16 @@
       <c r="F19" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>46</v>
@@ -1458,7 +1493,10 @@
         <v>57</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1466,62 +1504,72 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="F21" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>69</v>
+      <c r="G23" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>